--- a/table1.xlsx
+++ b/table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f535d13dd6596d9/Documents/4 Syracuse/05 Spring 2021/PAI 789 - Advanced Policy Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f535d13dd6596d9/Documents/4 Syracuse/05 Spring 2021/PAI 789 - Advanced Policy Analysis/GitHub Assignments/population-growth-and-representation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B43FE0-A4E8-48AF-94CF-7AB14AC192C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{87B43FE0-A4E8-48AF-94CF-7AB14AC192C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E22C2ED4-C9BA-420C-A010-789522C4C46E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Area Name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>3 (barely 4)</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>31 (barely 10, 25)</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>flipped in 20 from 18 from 16</t>
+  </si>
+  <si>
+    <t>45 (barely 48)</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -756,8 +756,8 @@
         <v>10</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>36</v>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -778,7 +778,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -798,8 +798,8 @@
         <v>7</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>36</v>
+      <c r="G10">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -882,8 +882,8 @@
         <v>7</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>36</v>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -904,7 +904,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -925,7 +925,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
